--- a/error file.xlsx
+++ b/error file.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770CA1C-A34B-44EF-BBD0-408D27EE88C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>id(#)</t>
   </si>
@@ -84,9 +85,6 @@
     <t>Ride Share</t>
   </si>
   <si>
-    <t xml:space="preserve">do not display error details </t>
-  </si>
-  <si>
     <t xml:space="preserve">Colour of upoload button should be dark </t>
   </si>
   <si>
@@ -115,12 +113,21 @@
   </si>
   <si>
     <t xml:space="preserve">Functional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not display error details </t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +144,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +185,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,6 +202,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -231,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +286,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +338,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,30 +530,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="79.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="3" width="17.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="79.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="18.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -552,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -566,13 +622,22 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -586,13 +651,22 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -606,73 +680,73 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43669</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43669</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43669</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43669</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43669</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43669</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -686,13 +760,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -706,13 +780,22 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -726,10 +809,19 @@
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -739,24 +831,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
